--- a/HocPhi/Template_2023.xlsx
+++ b/HocPhi/Template_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\HocPhi\HocPhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477F51C4-A71C-483D-9C0F-82B0B24F2514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1E2EC0-C148-48DB-8A11-0FB29EA56363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
   <si>
     <t>Stt</t>
   </si>
@@ -166,13 +166,52 @@
   </si>
   <si>
     <t>Cao Minh Đạt</t>
+  </si>
+  <si>
+    <t>Thong_bao</t>
+  </si>
+  <si>
+    <t>Ky_dong_tien</t>
+  </si>
+  <si>
+    <t>Thong báo đống học phí</t>
+  </si>
+  <si>
+    <t>Năm học 2023</t>
+  </si>
+  <si>
+    <t>Năm học 2024</t>
+  </si>
+  <si>
+    <t>Năm học 2025</t>
+  </si>
+  <si>
+    <t>Năm học 2026</t>
+  </si>
+  <si>
+    <t>Năm học 2027</t>
+  </si>
+  <si>
+    <t>Năm học 2028</t>
+  </si>
+  <si>
+    <t>Năm học 2029</t>
+  </si>
+  <si>
+    <t>Năm học 2030</t>
+  </si>
+  <si>
+    <t>Năm học 2031</t>
+  </si>
+  <si>
+    <t>Năm học 2032</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +288,12 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -603,44 +648,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="3" customWidth="1"/>
-    <col min="10" max="11" width="15.85546875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="12" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="28.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" style="12" customWidth="1"/>
-    <col min="19" max="19" width="19" style="12" customWidth="1"/>
-    <col min="20" max="20" width="18" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.28515625" style="12" customWidth="1"/>
-    <col min="23" max="23" width="16.42578125" style="12" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="17.28515625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="17.85546875" style="12" customWidth="1"/>
-    <col min="27" max="27" width="20.85546875" style="12" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="5" width="19.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="3" customWidth="1"/>
+    <col min="12" max="13" width="15.85546875" style="12" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" style="12" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="12" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="28.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" style="12" customWidth="1"/>
+    <col min="21" max="21" width="19" style="12" customWidth="1"/>
+    <col min="22" max="22" width="18" style="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" style="12" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" style="12" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="17.28515625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="17.85546875" style="12" customWidth="1"/>
+    <col min="29" max="29" width="20.85546875" style="12" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>33</v>
       </c>
@@ -650,80 +695,86 @@
       <c r="C1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -733,64 +784,70 @@
       <c r="C2" s="18">
         <v>69110000229990</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="9">
         <v>1</v>
       </c>
-      <c r="E2" s="9">
+      <c r="G2" s="9">
         <v>123456</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="10">
+      <c r="K2" s="10">
         <v>123456</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="11">
+      <c r="M2" s="11">
         <v>2342423</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="10">
+      <c r="O2" s="10">
         <v>50</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="11">
+      <c r="Q2" s="11">
         <v>60</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="S2" s="10">
         <v>256256</v>
       </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="8">
+      <c r="W2" s="8">
         <v>1000000</v>
       </c>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
     </row>
-    <row r="3" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
@@ -800,60 +857,66 @@
       <c r="C3" s="18">
         <v>69110000229990</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="9">
         <v>2</v>
       </c>
-      <c r="E3" s="9">
+      <c r="G3" s="9">
         <v>123457</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="10">
+      <c r="K3" s="10">
         <v>234234</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="11">
+      <c r="M3" s="11">
         <v>2342334</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="10">
+      <c r="O3" s="10">
         <v>50</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="11">
+      <c r="Q3" s="11">
         <v>60</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="8" t="s">
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="8">
+      <c r="W3" s="8">
         <v>1000001</v>
       </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
@@ -863,48 +926,54 @@
       <c r="C4" s="18">
         <v>69110000229990</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="9">
         <v>3</v>
       </c>
-      <c r="E4" s="9">
+      <c r="G4" s="9">
         <v>123458</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="I4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="10">
+      <c r="K4" s="10">
         <v>345012</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="8" t="s">
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="8">
+      <c r="W4" s="8">
         <v>1000002</v>
       </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>34</v>
       </c>
@@ -914,52 +983,58 @@
       <c r="C5" s="18">
         <v>69110000229990</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="9">
         <v>4</v>
       </c>
-      <c r="E5" s="9">
+      <c r="G5" s="9">
         <v>123459</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="I5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="10">
+      <c r="K5" s="10">
         <v>455790</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="10">
+      <c r="O5" s="10">
         <v>50</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="8" t="s">
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="U5" s="8">
+      <c r="W5" s="8">
         <v>1000003</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>34</v>
       </c>
@@ -969,32 +1044,38 @@
       <c r="C6" s="18">
         <v>69110000229990</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="9">
         <v>5</v>
       </c>
-      <c r="E6" s="9">
+      <c r="G6" s="9">
         <v>123460</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="I6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="10">
+      <c r="K6" s="10">
         <v>566568</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="V6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="U6" s="8">
+      <c r="W6" s="8">
         <v>1000004</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
@@ -1004,38 +1085,44 @@
       <c r="C7" s="18">
         <v>69110000229990</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="9">
         <v>6</v>
       </c>
-      <c r="E7" s="9">
+      <c r="G7" s="9">
         <v>123461</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="I7" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="J7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="10">
+      <c r="K7" s="10">
         <v>677346</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="R7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="S7" s="10">
         <v>256256</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="V7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="U7" s="8">
+      <c r="W7" s="8">
         <v>1000005</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>34</v>
       </c>
@@ -1045,32 +1132,38 @@
       <c r="C8" s="18">
         <v>69110000229990</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="9">
         <v>7</v>
       </c>
-      <c r="E8" s="9">
+      <c r="G8" s="9">
         <v>123462</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="I8" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="J8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="10">
+      <c r="K8" s="10">
         <v>788124</v>
       </c>
-      <c r="T8" s="8" t="s">
+      <c r="V8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="U8" s="8">
+      <c r="W8" s="8">
         <v>1000006</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>34</v>
       </c>
@@ -1080,38 +1173,44 @@
       <c r="C9" s="18">
         <v>69110000229990</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="9">
         <v>8</v>
       </c>
-      <c r="E9" s="9">
+      <c r="G9" s="9">
         <v>123463</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="I9" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="10">
+      <c r="K9" s="10">
         <v>898902</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="R9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="S9" s="10">
         <v>256256</v>
       </c>
-      <c r="T9" s="8" t="s">
+      <c r="V9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="8">
+      <c r="W9" s="8">
         <v>1000007</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
@@ -1121,44 +1220,50 @@
       <c r="C10" s="18">
         <v>69110000229990</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="9">
         <v>9</v>
       </c>
-      <c r="E10" s="9">
+      <c r="G10" s="9">
         <v>123464</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="J10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="10">
+      <c r="K10" s="10">
         <v>1009680</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="8" t="s">
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="U10" s="8">
+      <c r="W10" s="8">
         <v>1000008</v>
       </c>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
@@ -1168,32 +1273,39 @@
       <c r="C11" s="18">
         <v>69110000229990</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="9">
         <v>10</v>
       </c>
-      <c r="E11" s="9">
+      <c r="G11" s="9">
         <v>123465</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="I11" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="J11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="10">
+      <c r="K11" s="10">
         <v>1120458</v>
       </c>
-      <c r="T11" s="8" t="s">
+      <c r="V11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="U11" s="8">
+      <c r="W11" s="8">
         <v>1000009</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/HocPhi/Template_2023.xlsx
+++ b/HocPhi/Template_2023.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\HocPhi\HocPhi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1E2EC0-C148-48DB-8A11-0FB29EA56363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4C40CC-A1E5-4EC9-84D8-8E7F306F088C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="1395" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -651,7 +662,7 @@
   <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
